--- a/Reporte/ReportesSigreValorizacion.xlsx
+++ b/Reporte/ReportesSigreValorizacion.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\SigreWeb\sigreweb-main\SigreApiRest\Reporte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sigreweb-main\sigreweb-main\app\Reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469BC6B8-18E3-4314-BFCB-B514E6525F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094CD9A6-39D4-4AAB-8B41-9A4F2CFA5D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4481B342-BB1C-481E-A30A-ED1416DC2C19}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{4481B342-BB1C-481E-A30A-ED1416DC2C19}"/>
   </bookViews>
   <sheets>
     <sheet name="BT" sheetId="1" r:id="rId1"/>
     <sheet name="VBT" sheetId="5" r:id="rId2"/>
     <sheet name="VALORIZADO" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t xml:space="preserve">NOMBRE RESP:      </t>
   </si>
@@ -36,18 +36,12 @@
   </si>
   <si>
     <t>Etiqueta</t>
-  </si>
-  <si>
-    <t>FORMATO DE VANOS</t>
   </si>
   <si>
     <t>INSPECCION E INFORMACION DE DISTANCIAS
  MINIMAS DE SEGURIDAD</t>
   </si>
   <si>
-    <t>FORMATO ESTRUCTURAS BT</t>
-  </si>
-  <si>
     <t>VANOS DE BAJA TENSIÓN</t>
   </si>
   <si>
@@ -109,6 +103,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIMENTADOR / SED: </t>
+  </si>
+  <si>
+    <t>VALORIZACION DE ESTRUCTURAS EBT</t>
+  </si>
+  <si>
+    <t>VALORIZACION DE VANO DE BT</t>
+  </si>
+  <si>
+    <t>VALORIZACION DE ESTRUCTURAS EBT Y VANO DE BT</t>
   </si>
 </sst>
 </file>
@@ -863,11 +869,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -926,11 +932,11 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1290,13 +1296,13 @@
     <row r="2" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K2" s="1"/>
       <c r="L2" s="45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="70"/>
+      <c r="N2" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="91"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K3" s="4"/>
@@ -1318,7 +1324,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="41"/>
       <c r="M5" s="8" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N5" s="61"/>
       <c r="O5" s="62"/>
@@ -1336,7 +1342,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="48"/>
       <c r="M7" s="33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="32"/>
@@ -1346,19 +1352,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="75" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>26</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="K8" s="71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L8" s="72"/>
       <c r="M8" s="38"/>
@@ -1374,7 +1380,7 @@
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
       <c r="K9" s="73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L9" s="74"/>
       <c r="M9" s="38"/>
@@ -1393,10 +1399,10 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="K10" s="43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M10" s="38"/>
       <c r="N10" s="34"/>
@@ -1414,10 +1420,10 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="K11" s="43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L11" s="49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M11" s="38"/>
       <c r="N11" s="34"/>
@@ -1435,10 +1441,10 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="K12" s="43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M12" s="38"/>
       <c r="N12" s="34"/>
@@ -1456,10 +1462,10 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="K13" s="44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L13" s="50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M13" s="39"/>
       <c r="N13" s="35"/>
@@ -1532,7 +1538,7 @@
     <col min="10" max="10" width="4.85546875" customWidth="1"/>
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="80.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" customWidth="1"/>
     <col min="14" max="15" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1540,11 +1546,11 @@
     <row r="2" spans="1:15" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K2" s="1"/>
       <c r="L2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="79" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="O2" s="80"/>
     </row>
@@ -1568,7 +1574,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="9"/>
       <c r="M5" s="8" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N5" s="83"/>
       <c r="O5" s="84"/>
@@ -1591,26 +1597,26 @@
       <c r="K7" s="10"/>
       <c r="L7" s="11"/>
       <c r="M7" s="33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="69" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>26</v>
       </c>
       <c r="I8" s="24"/>
       <c r="K8" s="51"/>
       <c r="L8" s="52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
@@ -1618,13 +1624,13 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
       <c r="I9" s="24"/>
       <c r="K9" s="53"/>
       <c r="L9" s="54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -1637,7 +1643,7 @@
       <c r="D10" s="68"/>
       <c r="I10" s="24"/>
       <c r="K10" s="77" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L10" s="78"/>
       <c r="M10" s="40"/>
@@ -1657,10 +1663,10 @@
       <c r="H11" s="25"/>
       <c r="I11" s="24"/>
       <c r="K11" s="55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L11" s="56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
@@ -1679,10 +1685,10 @@
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="K12" s="43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
@@ -1701,10 +1707,10 @@
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="K13" s="43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L13" s="49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
@@ -1720,10 +1726,10 @@
       </c>
       <c r="I14" s="25"/>
       <c r="K14" s="44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L14" s="50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M14" s="30"/>
       <c r="N14" s="30"/>
@@ -1782,11 +1788,11 @@
     <row r="2" spans="1:15" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K2" s="1"/>
       <c r="L2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="79" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="O2" s="80"/>
     </row>
@@ -1810,7 +1816,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="9"/>
       <c r="M5" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N5" s="83"/>
       <c r="O5" s="84"/>
@@ -1833,28 +1839,28 @@
       <c r="K7" s="10"/>
       <c r="L7" s="11"/>
       <c r="M7" s="33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="69" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>26</v>
       </c>
       <c r="I8" s="24"/>
       <c r="K8" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="58" t="s">
         <v>21</v>
-      </c>
-      <c r="L8" s="58" t="s">
-        <v>23</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
@@ -1862,13 +1868,13 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
       <c r="I9" s="24"/>
       <c r="K9" s="88"/>
       <c r="L9" s="58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -1882,7 +1888,7 @@
       <c r="I10" s="24"/>
       <c r="K10" s="89"/>
       <c r="L10" s="58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M10" s="40"/>
       <c r="N10" s="40"/>
@@ -1901,10 +1907,10 @@
       <c r="H11" s="25"/>
       <c r="I11" s="24"/>
       <c r="K11" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L11" s="57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
@@ -1923,10 +1929,10 @@
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="K12" s="42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L12" s="57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
@@ -1945,10 +1951,10 @@
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="K13" s="42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L13" s="57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
@@ -1964,10 +1970,10 @@
       </c>
       <c r="I14" s="25"/>
       <c r="K14" s="42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L14" s="57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M14" s="30"/>
       <c r="N14" s="30"/>

--- a/Reporte/ReportesSigreValorizacion.xlsx
+++ b/Reporte/ReportesSigreValorizacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sigreweb-main\sigreweb-main\app\Reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094CD9A6-39D4-4AAB-8B41-9A4F2CFA5D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDAABDB-FB7A-49F8-B1BA-12288BADCCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{4481B342-BB1C-481E-A30A-ED1416DC2C19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4481B342-BB1C-481E-A30A-ED1416DC2C19}"/>
   </bookViews>
   <sheets>
     <sheet name="BT" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t xml:space="preserve">SED: </t>
   </si>
   <si>
-    <t>PAG N°:</t>
-  </si>
-  <si>
     <t>CÓDIGO NODO:</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
-    <t>TIPO DE NODO</t>
-  </si>
-  <si>
     <t>Cantidad</t>
   </si>
   <si>
@@ -115,6 +109,12 @@
   </si>
   <si>
     <t>VALORIZACION DE ESTRUCTURAS EBT Y VANO DE BT</t>
+  </si>
+  <si>
+    <t>N° ORDEN:</t>
+  </si>
+  <si>
+    <t>UNIDAD DE MEDIDA</t>
   </si>
 </sst>
 </file>
@@ -267,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -462,19 +462,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -681,6 +668,56 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -689,7 +726,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -716,12 +753,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,15 +764,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -763,10 +785,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -778,16 +797,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -796,19 +815,16 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -821,7 +837,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -830,25 +846,19 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -863,79 +873,142 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1291,190 +1364,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23"/>
+      <c r="A1" s="18"/>
     </row>
     <row r="2" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K2" s="1"/>
-      <c r="L2" s="45" t="s">
-        <v>10</v>
+      <c r="L2" s="38" t="s">
+        <v>9</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="91"/>
+      <c r="N2" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="63"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K3" s="4"/>
-      <c r="L3" s="46"/>
+      <c r="L3" s="39"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="62"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K4" s="4"/>
-      <c r="L4" s="47"/>
+      <c r="L4" s="40"/>
       <c r="M4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="61"/>
-      <c r="O4" s="62"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K5" s="4"/>
-      <c r="L5" s="41"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="61"/>
-      <c r="O5" s="62"/>
+        <v>23</v>
+      </c>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K6" s="4"/>
-      <c r="L6" s="41"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="60"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="51"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K7" s="10"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="33" t="s">
+      <c r="L7" s="41"/>
+      <c r="M7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="K8" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="32"/>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="K8" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="72"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="36"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="K9" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="36"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="K9" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="67"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="30"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65">
+      <c r="A10" s="14"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56">
         <f>B10*C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="K10" s="43" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="K10" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="36"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="30"/>
     </row>
     <row r="11" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65">
+      <c r="A11" s="14"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56">
         <f t="shared" ref="D11:D13" si="0">B11*C11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="K11" s="43" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="K11" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="36"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="30"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65">
+      <c r="A12" s="14"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="K12" s="43" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="K12" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="36"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="30"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65">
+      <c r="A13" s="15"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="K13" s="44" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="K13" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="37"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="31"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58">
         <f>SUM(D10:D13)</f>
         <v>0</v>
       </c>
@@ -1484,20 +1557,20 @@
     <row r="22" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="3:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1549,17 +1622,17 @@
         <v>3</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="80"/>
+      <c r="N2" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="82"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="73"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K4" s="4"/>
@@ -1567,178 +1640,178 @@
       <c r="M4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="84"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="74"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K5" s="4"/>
       <c r="L5" s="9"/>
       <c r="M5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="83"/>
-      <c r="O5" s="84"/>
+        <v>23</v>
+      </c>
+      <c r="N5" s="91"/>
+      <c r="O5" s="74"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="K6" s="4"/>
       <c r="L6" s="9"/>
       <c r="M6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="86"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="75"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="24"/>
+      <c r="I7" s="19"/>
       <c r="K7" s="10"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
+      <c r="M7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="85"/>
+      <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52" t="s">
+      <c r="I8" s="19"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="93"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="94"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="I9" s="19"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="I9" s="24"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="I10" s="24"/>
-      <c r="K10" s="77" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="I10" s="19"/>
+      <c r="K10" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="78"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65">
+      <c r="L10" s="81"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="96"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56">
         <f>B11*C11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="24"/>
-      <c r="K11" s="55" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="19"/>
+      <c r="K11" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65">
+      <c r="M11" s="97"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="98"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56">
         <f t="shared" ref="D12:D14" si="0">B12*C12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="K12" s="43" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="K12" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65">
+      <c r="M12" s="97"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="98"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="K13" s="43" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="K13" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="100"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65">
+      <c r="A14" s="24"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="K14" s="44" t="s">
+      <c r="I14" s="20"/>
+      <c r="K14" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="103"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58">
         <f>SUM(D11:D14)</f>
         <v>0</v>
       </c>
@@ -1791,17 +1864,17 @@
         <v>3</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="80"/>
+      <c r="N2" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="82"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="73"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K4" s="4"/>
@@ -1809,8 +1882,8 @@
       <c r="M4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="84"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="74"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K5" s="4"/>
@@ -1818,171 +1891,171 @@
       <c r="M5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="83"/>
-      <c r="O5" s="84"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="74"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="K6" s="4"/>
       <c r="L6" s="9"/>
       <c r="M6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="86"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="75"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="24"/>
+      <c r="I7" s="19"/>
       <c r="K7" s="10"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="85"/>
+      <c r="O7" s="26"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="K8" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="93"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="94"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="I9" s="19"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="K8" s="87" t="s">
+      <c r="M9" s="93"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="94"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="I10" s="19"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="I9" s="24"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="I10" s="24"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-    </row>
-    <row r="11" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65">
+      <c r="M10" s="95"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="96"/>
+    </row>
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56">
         <f>B11*C11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="24"/>
-      <c r="K11" s="42" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="19"/>
+      <c r="K11" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65">
+      <c r="M11" s="97"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="98"/>
+    </row>
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56">
         <f t="shared" ref="D12:D14" si="0">B12*C12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="K12" s="42" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="K12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65">
+      <c r="M12" s="97"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="98"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="K13" s="42" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="K13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="100"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65">
+      <c r="A14" s="24"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="K14" s="42" t="s">
+      <c r="I14" s="20"/>
+      <c r="K14" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="103"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58">
         <f>SUM(D11:D14)</f>
         <v>0</v>
       </c>

--- a/Reporte/ReportesSigreValorizacion.xlsx
+++ b/Reporte/ReportesSigreValorizacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sigreweb-main\sigreweb-main\app\Reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDAABDB-FB7A-49F8-B1BA-12288BADCCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413AC160-F2A8-405F-9E8C-0A95C577188B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4481B342-BB1C-481E-A30A-ED1416DC2C19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4481B342-BB1C-481E-A30A-ED1416DC2C19}"/>
   </bookViews>
   <sheets>
     <sheet name="BT" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t xml:space="preserve">NOMBRE RESP:      </t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>VANOS DE BAJA TENSIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SED: </t>
   </si>
   <si>
     <t>CÓDIGO NODO:</t>
@@ -726,7 +723,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -885,6 +882,66 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -912,18 +969,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -934,81 +1003,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1340,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2753035-815A-40F2-8A73-CB51F15BF724}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
     </sheetView>
@@ -1369,13 +1363,13 @@
     <row r="2" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K2" s="1"/>
       <c r="L2" s="38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="63"/>
+      <c r="N2" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="83"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K3" s="4"/>
@@ -1397,7 +1391,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="34"/>
       <c r="M5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" s="52"/>
       <c r="O5" s="53"/>
@@ -1415,7 +1409,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="41"/>
       <c r="M7" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N7" s="25"/>
       <c r="O7" s="26"/>
@@ -1424,38 +1418,38 @@
       <c r="A8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="D8" s="88" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>22</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
-      <c r="K8" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="65"/>
+      <c r="K8" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="85"/>
       <c r="M8" s="32"/>
       <c r="N8" s="28"/>
       <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
-      <c r="K9" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="67"/>
+      <c r="K9" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="87"/>
       <c r="M9" s="32"/>
       <c r="N9" s="28"/>
       <c r="O9" s="30"/>
@@ -1472,10 +1466,10 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="K10" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="47" t="s">
         <v>10</v>
-      </c>
-      <c r="L10" s="47" t="s">
-        <v>11</v>
       </c>
       <c r="M10" s="32"/>
       <c r="N10" s="28"/>
@@ -1493,10 +1487,10 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="K11" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="42" t="s">
         <v>12</v>
-      </c>
-      <c r="L11" s="42" t="s">
-        <v>13</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="28"/>
@@ -1514,10 +1508,10 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="K12" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="42" t="s">
         <v>14</v>
-      </c>
-      <c r="L12" s="42" t="s">
-        <v>15</v>
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="28"/>
@@ -1535,10 +1529,10 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="K13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="43" t="s">
         <v>16</v>
-      </c>
-      <c r="L13" s="43" t="s">
-        <v>17</v>
       </c>
       <c r="M13" s="33"/>
       <c r="N13" s="29"/>
@@ -1622,17 +1616,17 @@
         <v>3</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="72"/>
+      <c r="N2" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="93"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="73"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="95"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K4" s="4"/>
@@ -1640,17 +1634,17 @@
       <c r="M4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="91"/>
-      <c r="O4" s="74"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K5" s="4"/>
       <c r="L5" s="9"/>
       <c r="M5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="91"/>
-      <c r="O5" s="74"/>
+        <v>22</v>
+      </c>
+      <c r="N5" s="96"/>
+      <c r="O5" s="97"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" s="19"/>
@@ -1662,38 +1656,38 @@
       <c r="M6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="92"/>
-      <c r="O6" s="75"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="99"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I7" s="19"/>
       <c r="K7" s="10"/>
       <c r="L7" s="11"/>
       <c r="M7" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="85"/>
+        <v>26</v>
+      </c>
+      <c r="N7" s="25"/>
       <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
       <c r="B8" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="D8" s="60" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>22</v>
       </c>
       <c r="I8" s="19"/>
       <c r="K8" s="44"/>
-      <c r="L8" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="93"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="94"/>
+      <c r="L8" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="71"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="72"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
@@ -1702,12 +1696,12 @@
       <c r="D9" s="61"/>
       <c r="I9" s="19"/>
       <c r="K9" s="45"/>
-      <c r="L9" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="93"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="94"/>
+      <c r="L9" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="71"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="72"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
@@ -1715,13 +1709,13 @@
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
       <c r="I10" s="19"/>
-      <c r="K10" s="70" t="s">
+      <c r="K10" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="81"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="96"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="74"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
@@ -1736,14 +1730,14 @@
       <c r="H11" s="20"/>
       <c r="I11" s="19"/>
       <c r="K11" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="97"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="98"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="76"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
@@ -1758,14 +1752,14 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="K12" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="97"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="98"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="76"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
@@ -1780,14 +1774,14 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="K13" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="99"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="100"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="78"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
@@ -1799,14 +1793,14 @@
       </c>
       <c r="I14" s="20"/>
       <c r="K14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="101"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="103"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="81"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="57"/>
@@ -1834,7 +1828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D5FCFF-E7B5-41EA-8D5A-745814E4F2F6}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
     </sheetView>
@@ -1864,17 +1858,17 @@
         <v>3</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="72"/>
+      <c r="N2" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="93"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="73"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="95"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K4" s="4"/>
@@ -1882,17 +1876,17 @@
       <c r="M4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="91"/>
-      <c r="O4" s="74"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K5" s="4"/>
       <c r="L5" s="9"/>
       <c r="M5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="91"/>
-      <c r="O5" s="74"/>
+        <v>22</v>
+      </c>
+      <c r="N5" s="96"/>
+      <c r="O5" s="97"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" s="19"/>
@@ -1904,40 +1898,40 @@
       <c r="M6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="92"/>
-      <c r="O6" s="75"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="99"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I7" s="19"/>
       <c r="K7" s="10"/>
       <c r="L7" s="11"/>
       <c r="M7" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="85"/>
+        <v>26</v>
+      </c>
+      <c r="N7" s="25"/>
       <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
       <c r="B8" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="D8" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="60" t="s">
-        <v>22</v>
-      </c>
       <c r="I8" s="19"/>
-      <c r="K8" s="76" t="s">
-        <v>18</v>
+      <c r="K8" s="100" t="s">
+        <v>17</v>
       </c>
       <c r="L8" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="93"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="94"/>
+        <v>27</v>
+      </c>
+      <c r="M8" s="71"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="72"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
@@ -1945,13 +1939,13 @@
       <c r="C9" s="61"/>
       <c r="D9" s="61"/>
       <c r="I9" s="19"/>
-      <c r="K9" s="77"/>
+      <c r="K9" s="101"/>
       <c r="L9" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="93"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="94"/>
+        <v>5</v>
+      </c>
+      <c r="M9" s="71"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="72"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
@@ -1959,13 +1953,13 @@
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
       <c r="I10" s="19"/>
-      <c r="K10" s="78"/>
+      <c r="K10" s="102"/>
       <c r="L10" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="95"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="96"/>
+        <v>18</v>
+      </c>
+      <c r="M10" s="73"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="74"/>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
@@ -1980,14 +1974,14 @@
       <c r="H11" s="20"/>
       <c r="I11" s="19"/>
       <c r="K11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="97"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="98"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="76"/>
     </row>
     <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
@@ -2002,14 +1996,14 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="K12" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="97"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="98"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="76"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
@@ -2024,14 +2018,14 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="K13" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="99"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="100"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="78"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
@@ -2043,14 +2037,14 @@
       </c>
       <c r="I14" s="20"/>
       <c r="K14" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="101"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="103"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="81"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="57"/>
